--- a/downloaded_files/EMCS002_Tutorial-35910.xlsx
+++ b/downloaded_files/EMCS002_Tutorial-35910.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -184,6 +184,15 @@
   </x:si>
   <x:si>
     <x:t>Abdelarhman Yasser Mohamed Elsayed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240331</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالله أحمد سامي عبدالباقي ابو الحسن</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdallah ahmad samy abdelbaky Abouelhassan</x:t>
   </x:si>
   <x:si>
     <x:t>1240332</x:t>
@@ -452,7 +461,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -752,7 +761,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T35"/>
+  <x:dimension ref="A1:T36"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1387,7 +1396,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45915.5366626157</x:v>
+        <x:v>45921.4387941319</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1419,7 +1428,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45918.4254607986</x:v>
+        <x:v>45915.5366626157</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1451,7 +1460,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45915.5367396181</x:v>
+        <x:v>45918.4254607986</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1483,7 +1492,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45915.5361985764</x:v>
+        <x:v>45915.5367396181</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1515,7 +1524,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45915.5358341435</x:v>
+        <x:v>45915.5361985764</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1547,7 +1556,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45915.535883912</x:v>
+        <x:v>45915.5358341435</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1579,7 +1588,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45915.5359737269</x:v>
+        <x:v>45915.535883912</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1611,7 +1620,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45918.4867371875</x:v>
+        <x:v>45915.5359737269</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1643,7 +1652,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45915.5367050926</x:v>
+        <x:v>45918.4867371875</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1675,7 +1684,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45915.5356783912</x:v>
+        <x:v>45915.5367050926</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1707,7 +1716,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45915.5356409722</x:v>
+        <x:v>45915.5356783912</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1739,7 +1748,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45918.5069047454</x:v>
+        <x:v>45915.5356409722</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1771,7 +1780,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45915.5362802894</x:v>
+        <x:v>45918.5069047454</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1803,7 +1812,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45915.5361647338</x:v>
+        <x:v>45915.5362802894</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1835,7 +1844,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45915.5360084491</x:v>
+        <x:v>45915.5361647338</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1867,7 +1876,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45915.5366295139</x:v>
+        <x:v>45915.5360084491</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1899,7 +1908,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45915.0354261574</x:v>
+        <x:v>45915.5366295139</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1916,6 +1925,38 @@
       <x:c r="R35" s="2" t="s"/>
       <x:c r="S35" s="2" t="s"/>
       <x:c r="T35" s="2" t="s"/>
+    </x:row>
+    <x:row r="36" spans="1:20">
+      <x:c r="A36" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B36" s="2" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="C36" s="2" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="D36" s="2" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="E36" s="3">
+        <x:v>45915.0354261574</x:v>
+      </x:c>
+      <x:c r="F36" s="2" t="s"/>
+      <x:c r="G36" s="2" t="s"/>
+      <x:c r="H36" s="2" t="s"/>
+      <x:c r="I36" s="2" t="s"/>
+      <x:c r="J36" s="2" t="s"/>
+      <x:c r="K36" s="2" t="s"/>
+      <x:c r="L36" s="2" t="s"/>
+      <x:c r="M36" s="2" t="s"/>
+      <x:c r="N36" s="2" t="s"/>
+      <x:c r="O36" s="2" t="s"/>
+      <x:c r="P36" s="2" t="s"/>
+      <x:c r="Q36" s="2" t="s"/>
+      <x:c r="R36" s="2" t="s"/>
+      <x:c r="S36" s="2" t="s"/>
+      <x:c r="T36" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EMCS002_Tutorial-35910.xlsx
+++ b/downloaded_files/EMCS002_Tutorial-35910.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -283,6 +283,15 @@
   </x:si>
   <x:si>
     <x:t>mazen walid farid mohamed abd elghany</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250210</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مايا عادل حامد احمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Maya Adel Hamed Ahmed</x:t>
   </x:si>
   <x:si>
     <x:t>1240134</x:t>
@@ -461,7 +470,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E37" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -761,7 +770,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T36"/>
+  <x:dimension ref="A1:T37"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1748,7 +1757,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45915.5356409722</x:v>
+        <x:v>45922.7437482986</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1780,7 +1789,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45918.5069047454</x:v>
+        <x:v>45915.5356409722</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1812,7 +1821,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45915.5362802894</x:v>
+        <x:v>45918.5069047454</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1844,7 +1853,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45915.5361647338</x:v>
+        <x:v>45915.5362802894</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1876,7 +1885,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45915.5360084491</x:v>
+        <x:v>45915.5361647338</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1908,7 +1917,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45915.5366295139</x:v>
+        <x:v>45915.5360084491</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1940,7 +1949,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45915.0354261574</x:v>
+        <x:v>45915.5366295139</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1957,6 +1966,38 @@
       <x:c r="R36" s="2" t="s"/>
       <x:c r="S36" s="2" t="s"/>
       <x:c r="T36" s="2" t="s"/>
+    </x:row>
+    <x:row r="37" spans="1:20">
+      <x:c r="A37" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B37" s="2" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="C37" s="2" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="D37" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="E37" s="3">
+        <x:v>45915.0354261574</x:v>
+      </x:c>
+      <x:c r="F37" s="2" t="s"/>
+      <x:c r="G37" s="2" t="s"/>
+      <x:c r="H37" s="2" t="s"/>
+      <x:c r="I37" s="2" t="s"/>
+      <x:c r="J37" s="2" t="s"/>
+      <x:c r="K37" s="2" t="s"/>
+      <x:c r="L37" s="2" t="s"/>
+      <x:c r="M37" s="2" t="s"/>
+      <x:c r="N37" s="2" t="s"/>
+      <x:c r="O37" s="2" t="s"/>
+      <x:c r="P37" s="2" t="s"/>
+      <x:c r="Q37" s="2" t="s"/>
+      <x:c r="R37" s="2" t="s"/>
+      <x:c r="S37" s="2" t="s"/>
+      <x:c r="T37" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EMCS002_Tutorial-35910.xlsx
+++ b/downloaded_files/EMCS002_Tutorial-35910.xlsx
@@ -39,7 +39,7 @@
     <x:t>احمد محمد عبدالله حسن عبدالله</x:t>
   </x:si>
   <x:si>
-    <x:t>Ahmed Mohamed Abdallah</x:t>
+    <x:t>Ahmed Mohammed Abdullah Hassan Abdullah</x:t>
   </x:si>
   <x:si>
     <x:t>1240207</x:t>

--- a/downloaded_files/EMCS002_Tutorial-35910.xlsx
+++ b/downloaded_files/EMCS002_Tutorial-35910.xlsx
@@ -204,6 +204,15 @@
     <x:t>Essam Mohamed Abdel Nasser</x:t>
   </x:si>
   <x:si>
+    <x:t>1240094</x:t>
+  </x:si>
+  <x:si>
+    <x:t>على محمد طارق سعد عبدالحميد البرهامى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ali Mohamed Tarek Saad Abdelhamid Elborhamy</x:t>
+  </x:si>
+  <x:si>
     <x:t>4250183</x:t>
   </x:si>
   <x:si>
@@ -292,15 +301,6 @@
   </x:si>
   <x:si>
     <x:t>Maya Adel Hamed Ahmed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240134</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد ايهاب صابر عبد العزيز عليوه</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohamed ehab saber abdelaziz aliwa</x:t>
   </x:si>
   <x:si>
     <x:t>4250192</x:t>
@@ -1469,7 +1469,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45918.4254607986</x:v>
+        <x:v>45928.8952260764</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1501,7 +1501,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45915.5367396181</x:v>
+        <x:v>45918.4254607986</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1533,7 +1533,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45915.5361985764</x:v>
+        <x:v>45915.5367396181</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1565,7 +1565,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45915.5358341435</x:v>
+        <x:v>45915.5361985764</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1597,7 +1597,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45915.535883912</x:v>
+        <x:v>45915.5358341435</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1629,7 +1629,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45915.5359737269</x:v>
+        <x:v>45915.535883912</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1661,7 +1661,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45918.4867371875</x:v>
+        <x:v>45915.5359737269</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1693,7 +1693,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45915.5367050926</x:v>
+        <x:v>45918.4867371875</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1725,7 +1725,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45915.5356783912</x:v>
+        <x:v>45915.5367050926</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1757,7 +1757,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45922.7437482986</x:v>
+        <x:v>45915.5356783912</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1789,7 +1789,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45915.5356409722</x:v>
+        <x:v>45922.7437482986</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>

--- a/downloaded_files/EMCS002_Tutorial-35910.xlsx
+++ b/downloaded_files/EMCS002_Tutorial-35910.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -121,6 +121,15 @@
   </x:si>
   <x:si>
     <x:t>Zyad Ahmed mohamed Almoghazy makhlouf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240223</x:t>
+  </x:si>
+  <x:si>
+    <x:t>زياد جابر حامد محمد خلف الله</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Zeyad Gaber Hamed Mohamed Khalafalla</x:t>
   </x:si>
   <x:si>
     <x:t>1240068</x:t>
@@ -470,7 +479,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E37" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E38" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -770,7 +779,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T37"/>
+  <x:dimension ref="A1:T38"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1181,7 +1190,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45919.0503248032</x:v>
+        <x:v>45929.3549396991</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1213,7 +1222,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45915.5367799769</x:v>
+        <x:v>45919.0503248032</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1245,7 +1254,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45915.5360443287</x:v>
+        <x:v>45915.5367799769</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1277,7 +1286,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45915.5359153935</x:v>
+        <x:v>45915.5360443287</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1309,7 +1318,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45915.5361314815</x:v>
+        <x:v>45915.5359153935</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1341,7 +1350,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45915.5360836806</x:v>
+        <x:v>45915.5361314815</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1373,7 +1382,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45909.5164410532</x:v>
+        <x:v>45915.5360836806</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1405,7 +1414,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45921.4387941319</x:v>
+        <x:v>45909.5164410532</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1437,7 +1446,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45915.5366626157</x:v>
+        <x:v>45921.4387941319</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1469,7 +1478,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45928.8952260764</x:v>
+        <x:v>45915.5366626157</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1501,7 +1510,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45918.4254607986</x:v>
+        <x:v>45928.8952260764</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1533,7 +1542,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45915.5367396181</x:v>
+        <x:v>45918.4254607986</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1565,7 +1574,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45915.5361985764</x:v>
+        <x:v>45915.5367396181</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1597,7 +1606,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45915.5358341435</x:v>
+        <x:v>45915.5361985764</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1629,7 +1638,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45915.535883912</x:v>
+        <x:v>45915.5358341435</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1661,7 +1670,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45915.5359737269</x:v>
+        <x:v>45915.535883912</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1693,7 +1702,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45918.4867371875</x:v>
+        <x:v>45915.5359737269</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1725,7 +1734,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45915.5367050926</x:v>
+        <x:v>45918.4867371875</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1757,7 +1766,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45915.5356783912</x:v>
+        <x:v>45915.5367050926</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1789,7 +1798,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45922.7437482986</x:v>
+        <x:v>45915.5356783912</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1821,7 +1830,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45918.5069047454</x:v>
+        <x:v>45922.7437482986</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1853,7 +1862,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45915.5362802894</x:v>
+        <x:v>45918.5069047454</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1885,7 +1894,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45915.5361647338</x:v>
+        <x:v>45915.5362802894</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1917,7 +1926,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45915.5360084491</x:v>
+        <x:v>45915.5361647338</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1949,7 +1958,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45915.5366295139</x:v>
+        <x:v>45915.5360084491</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1981,7 +1990,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45915.0354261574</x:v>
+        <x:v>45915.5366295139</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -1998,6 +2007,38 @@
       <x:c r="R37" s="2" t="s"/>
       <x:c r="S37" s="2" t="s"/>
       <x:c r="T37" s="2" t="s"/>
+    </x:row>
+    <x:row r="38" spans="1:20">
+      <x:c r="A38" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B38" s="2" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="C38" s="2" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="D38" s="2" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="E38" s="3">
+        <x:v>45915.0354261574</x:v>
+      </x:c>
+      <x:c r="F38" s="2" t="s"/>
+      <x:c r="G38" s="2" t="s"/>
+      <x:c r="H38" s="2" t="s"/>
+      <x:c r="I38" s="2" t="s"/>
+      <x:c r="J38" s="2" t="s"/>
+      <x:c r="K38" s="2" t="s"/>
+      <x:c r="L38" s="2" t="s"/>
+      <x:c r="M38" s="2" t="s"/>
+      <x:c r="N38" s="2" t="s"/>
+      <x:c r="O38" s="2" t="s"/>
+      <x:c r="P38" s="2" t="s"/>
+      <x:c r="Q38" s="2" t="s"/>
+      <x:c r="R38" s="2" t="s"/>
+      <x:c r="S38" s="2" t="s"/>
+      <x:c r="T38" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EMCS002_Tutorial-35910.xlsx
+++ b/downloaded_files/EMCS002_Tutorial-35910.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -33,6 +33,15 @@
     <x:t>Date</x:t>
   </x:si>
   <x:si>
+    <x:t>1240406</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد محمد ابوالفتوح محمد غنيم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Mohamed</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240014</x:t>
   </x:si>
   <x:si>
@@ -51,6 +60,15 @@
     <x:t>Ahmed Mostafa Ehsan Hassan Bakr</x:t>
   </x:si>
   <x:si>
+    <x:t>1230017</x:t>
+  </x:si>
+  <x:si>
+    <x:t>اسامه حامد شعبان حسين</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Osama Hamed Shabaan Hussein</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240291</x:t>
   </x:si>
   <x:si>
@@ -193,6 +211,12 @@
   </x:si>
   <x:si>
     <x:t>Abdelarhman Yasser Mohamed Elsayed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240425</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالعزيز عباس عوده</x:t>
   </x:si>
   <x:si>
     <x:t>1240331</x:t>
@@ -479,7 +503,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E38" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E41" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -779,7 +803,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T38"/>
+  <x:dimension ref="A1:T41"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -870,7 +894,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45915.5365862616</x:v>
+        <x:v>45929.804375544</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -902,7 +926,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45915.5357123495</x:v>
+        <x:v>45915.5365862616</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -934,7 +958,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45915.5359457176</x:v>
+        <x:v>45915.5357123495</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -966,7 +990,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45915.5357865741</x:v>
+        <x:v>45929.8031680903</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -998,7 +1022,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45915.5362361458</x:v>
+        <x:v>45915.5359457176</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1030,7 +1054,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45915.5365510069</x:v>
+        <x:v>45915.5357865741</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1062,7 +1086,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45919.0503248032</x:v>
+        <x:v>45915.5362361458</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1094,7 +1118,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45915.5357455208</x:v>
+        <x:v>45915.5365510069</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1126,7 +1150,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45915.5365056366</x:v>
+        <x:v>45919.0503248032</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1158,7 +1182,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45915.5364631134</x:v>
+        <x:v>45915.5357455208</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1190,7 +1214,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45929.3549396991</x:v>
+        <x:v>45915.5365056366</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1222,7 +1246,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45919.0503248032</x:v>
+        <x:v>45915.5364631134</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1254,7 +1278,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45915.5367799769</x:v>
+        <x:v>45929.3549396991</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1286,7 +1310,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45915.5360443287</x:v>
+        <x:v>45919.0503248032</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1318,7 +1342,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45915.5359153935</x:v>
+        <x:v>45915.5367799769</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1350,7 +1374,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45915.5361314815</x:v>
+        <x:v>45915.5360443287</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1382,7 +1406,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45915.5360836806</x:v>
+        <x:v>45915.5359153935</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1414,7 +1438,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45909.5164410532</x:v>
+        <x:v>45915.5361314815</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1446,7 +1470,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45921.4387941319</x:v>
+        <x:v>45915.5360836806</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1478,7 +1502,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45915.5366626157</x:v>
+        <x:v>45909.5164410532</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1506,11 +1530,9 @@
       <x:c r="C22" s="2" t="s">
         <x:v>66</x:v>
       </x:c>
-      <x:c r="D22" s="2" t="s">
-        <x:v>67</x:v>
-      </x:c>
+      <x:c r="D22" s="2" t="s"/>
       <x:c r="E22" s="3">
-        <x:v>45928.8952260764</x:v>
+        <x:v>45929.8052775463</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1533,16 +1555,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B23" s="2" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="C23" s="2" t="s">
         <x:v>68</x:v>
       </x:c>
-      <x:c r="C23" s="2" t="s">
+      <x:c r="D23" s="2" t="s">
         <x:v>69</x:v>
       </x:c>
-      <x:c r="D23" s="2" t="s">
-        <x:v>70</x:v>
-      </x:c>
       <x:c r="E23" s="3">
-        <x:v>45918.4254607986</x:v>
+        <x:v>45921.4387941319</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1565,16 +1587,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B24" s="2" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="C24" s="2" t="s">
         <x:v>71</x:v>
       </x:c>
-      <x:c r="C24" s="2" t="s">
+      <x:c r="D24" s="2" t="s">
         <x:v>72</x:v>
       </x:c>
-      <x:c r="D24" s="2" t="s">
-        <x:v>73</x:v>
-      </x:c>
       <x:c r="E24" s="3">
-        <x:v>45915.5367396181</x:v>
+        <x:v>45915.5366626157</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1597,16 +1619,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B25" s="2" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="C25" s="2" t="s">
         <x:v>74</x:v>
       </x:c>
-      <x:c r="C25" s="2" t="s">
+      <x:c r="D25" s="2" t="s">
         <x:v>75</x:v>
       </x:c>
-      <x:c r="D25" s="2" t="s">
-        <x:v>76</x:v>
-      </x:c>
       <x:c r="E25" s="3">
-        <x:v>45915.5361985764</x:v>
+        <x:v>45928.8952260764</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1629,16 +1651,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B26" s="2" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="C26" s="2" t="s">
         <x:v>77</x:v>
       </x:c>
-      <x:c r="C26" s="2" t="s">
+      <x:c r="D26" s="2" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="D26" s="2" t="s">
-        <x:v>79</x:v>
-      </x:c>
       <x:c r="E26" s="3">
-        <x:v>45915.5358341435</x:v>
+        <x:v>45918.4254607986</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1661,16 +1683,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B27" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="C27" s="2" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="C27" s="2" t="s">
+      <x:c r="D27" s="2" t="s">
         <x:v>81</x:v>
       </x:c>
-      <x:c r="D27" s="2" t="s">
-        <x:v>82</x:v>
-      </x:c>
       <x:c r="E27" s="3">
-        <x:v>45915.535883912</x:v>
+        <x:v>45915.5367396181</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1693,16 +1715,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B28" s="2" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="C28" s="2" t="s">
         <x:v>83</x:v>
       </x:c>
-      <x:c r="C28" s="2" t="s">
+      <x:c r="D28" s="2" t="s">
         <x:v>84</x:v>
       </x:c>
-      <x:c r="D28" s="2" t="s">
-        <x:v>85</x:v>
-      </x:c>
       <x:c r="E28" s="3">
-        <x:v>45915.5359737269</x:v>
+        <x:v>45915.5361985764</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1725,16 +1747,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B29" s="2" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="C29" s="2" t="s">
         <x:v>86</x:v>
       </x:c>
-      <x:c r="C29" s="2" t="s">
+      <x:c r="D29" s="2" t="s">
         <x:v>87</x:v>
       </x:c>
-      <x:c r="D29" s="2" t="s">
-        <x:v>88</x:v>
-      </x:c>
       <x:c r="E29" s="3">
-        <x:v>45918.4867371875</x:v>
+        <x:v>45915.5358341435</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1757,16 +1779,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B30" s="2" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="C30" s="2" t="s">
         <x:v>89</x:v>
       </x:c>
-      <x:c r="C30" s="2" t="s">
+      <x:c r="D30" s="2" t="s">
         <x:v>90</x:v>
       </x:c>
-      <x:c r="D30" s="2" t="s">
-        <x:v>91</x:v>
-      </x:c>
       <x:c r="E30" s="3">
-        <x:v>45915.5367050926</x:v>
+        <x:v>45915.535883912</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1789,16 +1811,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B31" s="2" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="C31" s="2" t="s">
         <x:v>92</x:v>
       </x:c>
-      <x:c r="C31" s="2" t="s">
+      <x:c r="D31" s="2" t="s">
         <x:v>93</x:v>
       </x:c>
-      <x:c r="D31" s="2" t="s">
-        <x:v>94</x:v>
-      </x:c>
       <x:c r="E31" s="3">
-        <x:v>45915.5356783912</x:v>
+        <x:v>45915.5359737269</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1821,16 +1843,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B32" s="2" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="C32" s="2" t="s">
         <x:v>95</x:v>
       </x:c>
-      <x:c r="C32" s="2" t="s">
+      <x:c r="D32" s="2" t="s">
         <x:v>96</x:v>
       </x:c>
-      <x:c r="D32" s="2" t="s">
-        <x:v>97</x:v>
-      </x:c>
       <x:c r="E32" s="3">
-        <x:v>45922.7437482986</x:v>
+        <x:v>45918.4867371875</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1853,16 +1875,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B33" s="2" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="C33" s="2" t="s">
         <x:v>98</x:v>
       </x:c>
-      <x:c r="C33" s="2" t="s">
+      <x:c r="D33" s="2" t="s">
         <x:v>99</x:v>
       </x:c>
-      <x:c r="D33" s="2" t="s">
-        <x:v>100</x:v>
-      </x:c>
       <x:c r="E33" s="3">
-        <x:v>45918.5069047454</x:v>
+        <x:v>45915.5367050926</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1885,16 +1907,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B34" s="2" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="C34" s="2" t="s">
         <x:v>101</x:v>
       </x:c>
-      <x:c r="C34" s="2" t="s">
+      <x:c r="D34" s="2" t="s">
         <x:v>102</x:v>
       </x:c>
-      <x:c r="D34" s="2" t="s">
-        <x:v>103</x:v>
-      </x:c>
       <x:c r="E34" s="3">
-        <x:v>45915.5362802894</x:v>
+        <x:v>45915.5356783912</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1917,16 +1939,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B35" s="2" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="C35" s="2" t="s">
         <x:v>104</x:v>
       </x:c>
-      <x:c r="C35" s="2" t="s">
+      <x:c r="D35" s="2" t="s">
         <x:v>105</x:v>
       </x:c>
-      <x:c r="D35" s="2" t="s">
-        <x:v>106</x:v>
-      </x:c>
       <x:c r="E35" s="3">
-        <x:v>45915.5361647338</x:v>
+        <x:v>45922.7437482986</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1949,16 +1971,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B36" s="2" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="C36" s="2" t="s">
         <x:v>107</x:v>
       </x:c>
-      <x:c r="C36" s="2" t="s">
+      <x:c r="D36" s="2" t="s">
         <x:v>108</x:v>
       </x:c>
-      <x:c r="D36" s="2" t="s">
-        <x:v>109</x:v>
-      </x:c>
       <x:c r="E36" s="3">
-        <x:v>45915.5360084491</x:v>
+        <x:v>45918.5069047454</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1981,16 +2003,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B37" s="2" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="C37" s="2" t="s">
         <x:v>110</x:v>
       </x:c>
-      <x:c r="C37" s="2" t="s">
+      <x:c r="D37" s="2" t="s">
         <x:v>111</x:v>
       </x:c>
-      <x:c r="D37" s="2" t="s">
-        <x:v>112</x:v>
-      </x:c>
       <x:c r="E37" s="3">
-        <x:v>45915.5366295139</x:v>
+        <x:v>45915.5362802894</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2013,16 +2035,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B38" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="C38" s="2" t="s">
         <x:v>113</x:v>
       </x:c>
-      <x:c r="C38" s="2" t="s">
+      <x:c r="D38" s="2" t="s">
         <x:v>114</x:v>
       </x:c>
-      <x:c r="D38" s="2" t="s">
-        <x:v>115</x:v>
-      </x:c>
       <x:c r="E38" s="3">
-        <x:v>45915.0354261574</x:v>
+        <x:v>45915.5361647338</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2039,6 +2061,102 @@
       <x:c r="R38" s="2" t="s"/>
       <x:c r="S38" s="2" t="s"/>
       <x:c r="T38" s="2" t="s"/>
+    </x:row>
+    <x:row r="39" spans="1:20">
+      <x:c r="A39" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B39" s="2" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="C39" s="2" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="D39" s="2" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="E39" s="3">
+        <x:v>45915.5360084491</x:v>
+      </x:c>
+      <x:c r="F39" s="2" t="s"/>
+      <x:c r="G39" s="2" t="s"/>
+      <x:c r="H39" s="2" t="s"/>
+      <x:c r="I39" s="2" t="s"/>
+      <x:c r="J39" s="2" t="s"/>
+      <x:c r="K39" s="2" t="s"/>
+      <x:c r="L39" s="2" t="s"/>
+      <x:c r="M39" s="2" t="s"/>
+      <x:c r="N39" s="2" t="s"/>
+      <x:c r="O39" s="2" t="s"/>
+      <x:c r="P39" s="2" t="s"/>
+      <x:c r="Q39" s="2" t="s"/>
+      <x:c r="R39" s="2" t="s"/>
+      <x:c r="S39" s="2" t="s"/>
+      <x:c r="T39" s="2" t="s"/>
+    </x:row>
+    <x:row r="40" spans="1:20">
+      <x:c r="A40" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B40" s="2" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="C40" s="2" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="D40" s="2" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="E40" s="3">
+        <x:v>45915.5366295139</x:v>
+      </x:c>
+      <x:c r="F40" s="2" t="s"/>
+      <x:c r="G40" s="2" t="s"/>
+      <x:c r="H40" s="2" t="s"/>
+      <x:c r="I40" s="2" t="s"/>
+      <x:c r="J40" s="2" t="s"/>
+      <x:c r="K40" s="2" t="s"/>
+      <x:c r="L40" s="2" t="s"/>
+      <x:c r="M40" s="2" t="s"/>
+      <x:c r="N40" s="2" t="s"/>
+      <x:c r="O40" s="2" t="s"/>
+      <x:c r="P40" s="2" t="s"/>
+      <x:c r="Q40" s="2" t="s"/>
+      <x:c r="R40" s="2" t="s"/>
+      <x:c r="S40" s="2" t="s"/>
+      <x:c r="T40" s="2" t="s"/>
+    </x:row>
+    <x:row r="41" spans="1:20">
+      <x:c r="A41" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B41" s="2" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="C41" s="2" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="D41" s="2" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="E41" s="3">
+        <x:v>45915.0354261574</x:v>
+      </x:c>
+      <x:c r="F41" s="2" t="s"/>
+      <x:c r="G41" s="2" t="s"/>
+      <x:c r="H41" s="2" t="s"/>
+      <x:c r="I41" s="2" t="s"/>
+      <x:c r="J41" s="2" t="s"/>
+      <x:c r="K41" s="2" t="s"/>
+      <x:c r="L41" s="2" t="s"/>
+      <x:c r="M41" s="2" t="s"/>
+      <x:c r="N41" s="2" t="s"/>
+      <x:c r="O41" s="2" t="s"/>
+      <x:c r="P41" s="2" t="s"/>
+      <x:c r="Q41" s="2" t="s"/>
+      <x:c r="R41" s="2" t="s"/>
+      <x:c r="S41" s="2" t="s"/>
+      <x:c r="T41" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EMCS002_Tutorial-35910.xlsx
+++ b/downloaded_files/EMCS002_Tutorial-35910.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -114,6 +114,15 @@
     <x:t>DALAL B H B BUTAIBAN</x:t>
   </x:si>
   <x:si>
+    <x:t>1240055</x:t>
+  </x:si>
+  <x:si>
+    <x:t>رامى أسامة بحر توفيق</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ramy Osama Bahr Tawfik</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240306</x:t>
   </x:si>
   <x:si>
@@ -166,6 +175,15 @@
   </x:si>
   <x:si>
     <x:t>Salma Elhoseny mohammed Adel Elhoseny</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240412</x:t>
+  </x:si>
+  <x:si>
+    <x:t>سما محمد حسين محمود ابراهيم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sama Mohamed Hussein</x:t>
   </x:si>
   <x:si>
     <x:t>1240411</x:t>
@@ -503,7 +521,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E41" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E43" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -803,7 +821,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T41"/>
+  <x:dimension ref="A1:T43"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1182,7 +1200,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45915.5357455208</x:v>
+        <x:v>45931.3615626505</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1214,7 +1232,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45915.5365056366</x:v>
+        <x:v>45915.5357455208</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1246,7 +1264,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45915.5364631134</x:v>
+        <x:v>45915.5365056366</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1278,7 +1296,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45929.3549396991</x:v>
+        <x:v>45915.5364631134</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1310,7 +1328,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45919.0503248032</x:v>
+        <x:v>45929.3549396991</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1342,7 +1360,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45915.5367799769</x:v>
+        <x:v>45919.0503248032</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1374,7 +1392,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45915.5360443287</x:v>
+        <x:v>45915.5367799769</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1406,7 +1424,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45915.5359153935</x:v>
+        <x:v>45931.4574162847</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1438,7 +1456,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45915.5361314815</x:v>
+        <x:v>45915.5360443287</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1470,7 +1488,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45915.5360836806</x:v>
+        <x:v>45915.5359153935</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1502,7 +1520,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45909.5164410532</x:v>
+        <x:v>45915.5361314815</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1530,9 +1548,11 @@
       <x:c r="C22" s="2" t="s">
         <x:v>66</x:v>
       </x:c>
-      <x:c r="D22" s="2" t="s"/>
+      <x:c r="D22" s="2" t="s">
+        <x:v>67</x:v>
+      </x:c>
       <x:c r="E22" s="3">
-        <x:v>45929.8052775463</x:v>
+        <x:v>45915.5360836806</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1555,16 +1575,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B23" s="2" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C23" s="2" t="s">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D23" s="2" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45921.4387941319</x:v>
+        <x:v>45909.5164410532</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1587,16 +1607,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B24" s="2" t="s">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C24" s="2" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="D24" s="2" t="s">
         <x:v>72</x:v>
       </x:c>
+      <x:c r="D24" s="2" t="s"/>
       <x:c r="E24" s="3">
-        <x:v>45915.5366626157</x:v>
+        <x:v>45929.8052775463</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1628,7 +1646,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45928.8952260764</x:v>
+        <x:v>45921.4387941319</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1660,7 +1678,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45918.4254607986</x:v>
+        <x:v>45915.5366626157</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1692,7 +1710,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45915.5367396181</x:v>
+        <x:v>45928.8952260764</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1724,7 +1742,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45915.5361985764</x:v>
+        <x:v>45918.4254607986</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1756,7 +1774,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45915.5358341435</x:v>
+        <x:v>45915.5367396181</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1788,7 +1806,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45915.535883912</x:v>
+        <x:v>45915.5361985764</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1820,7 +1838,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45915.5359737269</x:v>
+        <x:v>45915.5358341435</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1852,7 +1870,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45918.4867371875</x:v>
+        <x:v>45915.535883912</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1884,7 +1902,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45915.5367050926</x:v>
+        <x:v>45915.5359737269</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1916,7 +1934,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45915.5356783912</x:v>
+        <x:v>45918.4867371875</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1948,7 +1966,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45922.7437482986</x:v>
+        <x:v>45915.5367050926</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1980,7 +1998,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45918.5069047454</x:v>
+        <x:v>45915.5356783912</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2012,7 +2030,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45915.5362802894</x:v>
+        <x:v>45922.7437482986</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2044,7 +2062,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45915.5361647338</x:v>
+        <x:v>45918.5069047454</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2076,7 +2094,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45915.5360084491</x:v>
+        <x:v>45915.5362802894</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2108,7 +2126,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45915.5366295139</x:v>
+        <x:v>45915.5361647338</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2140,7 +2158,7 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45915.0354261574</x:v>
+        <x:v>45915.5360084491</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2157,6 +2175,70 @@
       <x:c r="R41" s="2" t="s"/>
       <x:c r="S41" s="2" t="s"/>
       <x:c r="T41" s="2" t="s"/>
+    </x:row>
+    <x:row r="42" spans="1:20">
+      <x:c r="A42" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B42" s="2" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="C42" s="2" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="D42" s="2" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="E42" s="3">
+        <x:v>45915.5366295139</x:v>
+      </x:c>
+      <x:c r="F42" s="2" t="s"/>
+      <x:c r="G42" s="2" t="s"/>
+      <x:c r="H42" s="2" t="s"/>
+      <x:c r="I42" s="2" t="s"/>
+      <x:c r="J42" s="2" t="s"/>
+      <x:c r="K42" s="2" t="s"/>
+      <x:c r="L42" s="2" t="s"/>
+      <x:c r="M42" s="2" t="s"/>
+      <x:c r="N42" s="2" t="s"/>
+      <x:c r="O42" s="2" t="s"/>
+      <x:c r="P42" s="2" t="s"/>
+      <x:c r="Q42" s="2" t="s"/>
+      <x:c r="R42" s="2" t="s"/>
+      <x:c r="S42" s="2" t="s"/>
+      <x:c r="T42" s="2" t="s"/>
+    </x:row>
+    <x:row r="43" spans="1:20">
+      <x:c r="A43" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B43" s="2" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="C43" s="2" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="D43" s="2" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="E43" s="3">
+        <x:v>45915.0354261574</x:v>
+      </x:c>
+      <x:c r="F43" s="2" t="s"/>
+      <x:c r="G43" s="2" t="s"/>
+      <x:c r="H43" s="2" t="s"/>
+      <x:c r="I43" s="2" t="s"/>
+      <x:c r="J43" s="2" t="s"/>
+      <x:c r="K43" s="2" t="s"/>
+      <x:c r="L43" s="2" t="s"/>
+      <x:c r="M43" s="2" t="s"/>
+      <x:c r="N43" s="2" t="s"/>
+      <x:c r="O43" s="2" t="s"/>
+      <x:c r="P43" s="2" t="s"/>
+      <x:c r="Q43" s="2" t="s"/>
+      <x:c r="R43" s="2" t="s"/>
+      <x:c r="S43" s="2" t="s"/>
+      <x:c r="T43" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EMCS002_Tutorial-35910.xlsx
+++ b/downloaded_files/EMCS002_Tutorial-35910.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -343,15 +343,6 @@
   </x:si>
   <x:si>
     <x:t>mazen walid farid mohamed abd elghany</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4250210</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مايا عادل حامد احمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Maya Adel Hamed Ahmed</x:t>
   </x:si>
   <x:si>
     <x:t>4250192</x:t>
@@ -521,7 +512,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E43" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E42" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -821,7 +812,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T43"/>
+  <x:dimension ref="A1:T42"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -2030,7 +2021,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45922.7437482986</x:v>
+        <x:v>45918.5069047454</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2062,7 +2053,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45918.5069047454</x:v>
+        <x:v>45915.5362802894</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2094,7 +2085,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45915.5362802894</x:v>
+        <x:v>45915.5361647338</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2126,7 +2117,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45915.5361647338</x:v>
+        <x:v>45915.5360084491</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2158,7 +2149,7 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45915.5360084491</x:v>
+        <x:v>45915.5366295139</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2190,7 +2181,7 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45915.5366295139</x:v>
+        <x:v>45915.0354261574</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2207,38 +2198,6 @@
       <x:c r="R42" s="2" t="s"/>
       <x:c r="S42" s="2" t="s"/>
       <x:c r="T42" s="2" t="s"/>
-    </x:row>
-    <x:row r="43" spans="1:20">
-      <x:c r="A43" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B43" s="2" t="s">
-        <x:v>127</x:v>
-      </x:c>
-      <x:c r="C43" s="2" t="s">
-        <x:v>128</x:v>
-      </x:c>
-      <x:c r="D43" s="2" t="s">
-        <x:v>129</x:v>
-      </x:c>
-      <x:c r="E43" s="3">
-        <x:v>45915.0354261574</x:v>
-      </x:c>
-      <x:c r="F43" s="2" t="s"/>
-      <x:c r="G43" s="2" t="s"/>
-      <x:c r="H43" s="2" t="s"/>
-      <x:c r="I43" s="2" t="s"/>
-      <x:c r="J43" s="2" t="s"/>
-      <x:c r="K43" s="2" t="s"/>
-      <x:c r="L43" s="2" t="s"/>
-      <x:c r="M43" s="2" t="s"/>
-      <x:c r="N43" s="2" t="s"/>
-      <x:c r="O43" s="2" t="s"/>
-      <x:c r="P43" s="2" t="s"/>
-      <x:c r="Q43" s="2" t="s"/>
-      <x:c r="R43" s="2" t="s"/>
-      <x:c r="S43" s="2" t="s"/>
-      <x:c r="T43" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EMCS002_Tutorial-35910.xlsx
+++ b/downloaded_files/EMCS002_Tutorial-35910.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -336,6 +336,15 @@
     <x:t>Lugi George maher</x:t>
   </x:si>
   <x:si>
+    <x:t>1240352</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مؤمن محمد محرز جمال عبد الغفور</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Moomen Mohamed Mehrez Gamal</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240127</x:t>
   </x:si>
   <x:si>
@@ -352,6 +361,15 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Hossam</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240368</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مروان محمد محرز جمال عبد الغفور</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Marwan mohamed mehrez gamal</x:t>
   </x:si>
   <x:si>
     <x:t>1240369</x:t>
@@ -512,7 +530,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E42" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E44" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -812,7 +830,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T42"/>
+  <x:dimension ref="A1:T44"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1989,7 +2007,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45915.5356783912</x:v>
+        <x:v>45934.4787549421</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2021,7 +2039,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45918.5069047454</x:v>
+        <x:v>45915.5356783912</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2053,7 +2071,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45915.5362802894</x:v>
+        <x:v>45918.5069047454</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2085,7 +2103,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45915.5361647338</x:v>
+        <x:v>45934.4787549421</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2117,7 +2135,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45915.5360084491</x:v>
+        <x:v>45915.5362802894</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2149,7 +2167,7 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45915.5366295139</x:v>
+        <x:v>45915.5361647338</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2181,7 +2199,7 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45915.0354261574</x:v>
+        <x:v>45915.5360084491</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2198,6 +2216,70 @@
       <x:c r="R42" s="2" t="s"/>
       <x:c r="S42" s="2" t="s"/>
       <x:c r="T42" s="2" t="s"/>
+    </x:row>
+    <x:row r="43" spans="1:20">
+      <x:c r="A43" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B43" s="2" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="C43" s="2" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="D43" s="2" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="E43" s="3">
+        <x:v>45915.5366295139</x:v>
+      </x:c>
+      <x:c r="F43" s="2" t="s"/>
+      <x:c r="G43" s="2" t="s"/>
+      <x:c r="H43" s="2" t="s"/>
+      <x:c r="I43" s="2" t="s"/>
+      <x:c r="J43" s="2" t="s"/>
+      <x:c r="K43" s="2" t="s"/>
+      <x:c r="L43" s="2" t="s"/>
+      <x:c r="M43" s="2" t="s"/>
+      <x:c r="N43" s="2" t="s"/>
+      <x:c r="O43" s="2" t="s"/>
+      <x:c r="P43" s="2" t="s"/>
+      <x:c r="Q43" s="2" t="s"/>
+      <x:c r="R43" s="2" t="s"/>
+      <x:c r="S43" s="2" t="s"/>
+      <x:c r="T43" s="2" t="s"/>
+    </x:row>
+    <x:row r="44" spans="1:20">
+      <x:c r="A44" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B44" s="2" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="C44" s="2" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="D44" s="2" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="E44" s="3">
+        <x:v>45915.0354261574</x:v>
+      </x:c>
+      <x:c r="F44" s="2" t="s"/>
+      <x:c r="G44" s="2" t="s"/>
+      <x:c r="H44" s="2" t="s"/>
+      <x:c r="I44" s="2" t="s"/>
+      <x:c r="J44" s="2" t="s"/>
+      <x:c r="K44" s="2" t="s"/>
+      <x:c r="L44" s="2" t="s"/>
+      <x:c r="M44" s="2" t="s"/>
+      <x:c r="N44" s="2" t="s"/>
+      <x:c r="O44" s="2" t="s"/>
+      <x:c r="P44" s="2" t="s"/>
+      <x:c r="Q44" s="2" t="s"/>
+      <x:c r="R44" s="2" t="s"/>
+      <x:c r="S44" s="2" t="s"/>
+      <x:c r="T44" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
